--- a/HubDePagos_Flujo8.1/build/resources/test/Data/Data_SolicitudTiempoExtra.xlsx
+++ b/HubDePagos_Flujo8.1/build/resources/test/Data/Data_SolicitudTiempoExtra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergiomolina\Downloads\Culminados\HubDePagos_SolicitudTiempoExtra Op\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Integra automatizados\HubDePagos_Flujo8.1\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8ED0C-B67D-4086-AE56-5A9454F79589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06575FB1-94D4-41BA-9C7C-10C42069B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" activeTab="1" xr2:uid="{933CB761-E0C1-4E56-B798-E174307CA3B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" xr2:uid="{933CB761-E0C1-4E56-B798-E174307CA3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="CrearSolicitudTiempoExtra" sheetId="2" r:id="rId1"/>
@@ -707,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4">
         <v>300</v>
@@ -822,7 +822,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
